--- a/data/导入excel模板.xlsx
+++ b/data/导入excel模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="30048" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="140">
   <si>
     <r>
       <rPr>
@@ -296,6 +296,12 @@
     <t>客制BUG责任人</t>
   </si>
   <si>
+    <t>实际时数</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>99990000</t>
   </si>
   <si>
@@ -344,6 +350,9 @@
     <t>Y</t>
   </si>
   <si>
+    <t>T02.标准产品相关</t>
+  </si>
+  <si>
     <t>已处理</t>
   </si>
   <si>
@@ -351,9 +360,6 @@
   </si>
   <si>
     <t>1.是</t>
-  </si>
-  <si>
-    <t>T02.标准产品相关</t>
   </si>
   <si>
     <t>T03.顾问相关</t>
@@ -664,11 +670,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -714,7 +720,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,32 +827,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,84 +842,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,187 +877,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,6 +1068,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1082,6 +1151,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1090,78 +1168,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1170,10 +1176,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1182,19 +1188,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1203,112 +1209,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1412,7 +1418,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1665,32 +1671,33 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.8796296296296" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.3796296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.6296296296296" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.3796296296296" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.8796296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.6296296296296" style="2" customWidth="1"/>
     <col min="9" max="9" width="17.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.25" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="30.125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="12" max="12" width="12.6296296296296" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.1296296296296" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.1296296296296" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.6296296296296" style="2" customWidth="1"/>
+    <col min="16" max="16" width="30.1296296296296" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.6296296296296" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.8888888888889" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:17">
+    <row r="1" customFormat="1" spans="1:19">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1742,97 +1749,103 @@
       <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:26">
       <c r="A2" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="7">
         <v>43698</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z2"/>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:26">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="7">
         <v>43699</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>2</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P3" s="7">
         <v>43699</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z3"/>
     </row>
@@ -1848,11 +1861,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I100">
       <formula1>Sheet2!$A$1:$J$1</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J100">
+      <formula1>INDIRECT($I2)</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
       <formula1>"1.未结案,2.已结案"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J100">
-      <formula1>INDIRECT($I2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1870,428 +1883,428 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="13.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" customFormat="1" ht="18.75" spans="1:11">
+    <row r="2" customFormat="1" ht="17.4" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" customFormat="1" ht="18.75" spans="1:11">
+    <row r="3" customFormat="1" ht="17.4" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" customFormat="1" ht="18.75" spans="1:11">
+    <row r="4" customFormat="1" ht="17.4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" customFormat="1" ht="18.75" spans="1:11">
+    <row r="5" customFormat="1" ht="17.4" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" customFormat="1" ht="18.75" spans="1:11">
+    <row r="6" customFormat="1" ht="17.4" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" customFormat="1" ht="18.75" spans="1:11">
+    <row r="7" customFormat="1" ht="17.4" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" customFormat="1" ht="18.75" spans="1:11">
+    <row r="8" customFormat="1" ht="17.4" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" customFormat="1" ht="18.75" spans="1:11">
+    <row r="9" customFormat="1" ht="17.4" spans="1:11">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" customFormat="1" ht="18.75" spans="1:11">
+    <row r="10" customFormat="1" ht="17.4" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" customFormat="1" ht="18.75" spans="1:11">
+    <row r="11" customFormat="1" ht="17.4" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" customFormat="1" ht="18.75" spans="1:11">
+    <row r="12" customFormat="1" ht="17.4" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" customFormat="1" ht="18.75" spans="1:11">
+    <row r="13" customFormat="1" ht="17.4" spans="1:11">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" customFormat="1" ht="18.75" spans="1:11">
+    <row r="14" customFormat="1" ht="17.4" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" customFormat="1" ht="18.75" spans="1:11">
+    <row r="15" customFormat="1" ht="17.4" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" customFormat="1" ht="18.75" spans="1:11">
+    <row r="16" customFormat="1" ht="17.4" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" customFormat="1" ht="18.75" spans="1:11">
+    <row r="17" customFormat="1" ht="17.4" spans="1:11">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" customFormat="1" ht="18.75" spans="1:11">
+    <row r="18" customFormat="1" ht="17.4" spans="1:11">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2302,11 +2315,11 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" customFormat="1" ht="18.75" spans="1:11">
+    <row r="19" customFormat="1" ht="17.4" spans="1:11">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2317,11 +2330,11 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" customFormat="1" ht="18.75" spans="1:11">
+    <row r="20" customFormat="1" ht="17.4" spans="1:11">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2332,11 +2345,11 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" customFormat="1" ht="18.75" spans="1:11">
+    <row r="21" customFormat="1" ht="17.4" spans="1:11">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2347,11 +2360,11 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" customFormat="1" ht="18.75" spans="1:11">
+    <row r="22" customFormat="1" ht="17.4" spans="1:11">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2362,11 +2375,11 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" customFormat="1" ht="18.75" spans="1:11">
+    <row r="23" customFormat="1" ht="17.4" spans="1:11">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2377,11 +2390,11 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" customFormat="1" ht="18.75" spans="1:11">
+    <row r="24" customFormat="1" ht="17.4" spans="1:11">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2392,7 +2405,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K24" s="1"/>
     </row>
